--- a/inputTemplate.xlsx
+++ b/inputTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feeco\Desktop\CYPRESS_ACCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feeco\Desktop\FileSystemProcessor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16C6836C-DF5D-419D-B144-F02901517C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1E492F-9AD8-4092-8A4A-5A20FBE7E1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C77A7442-41EE-444C-9D54-54CA19CA71CB}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C77A7442-41EE-444C-9D54-54CA19CA71CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,18 +57,9 @@
     <t>Repository</t>
   </si>
   <si>
-    <t>TC_1_Commercial Auto Line</t>
-  </si>
-  <si>
-    <t>Calidate Commercial Auto line CLAUSE_CATEGORY</t>
-  </si>
-  <si>
     <t>Manual</t>
   </si>
   <si>
-    <t>Login to PC</t>
-  </si>
-  <si>
     <t>initiate a New Submission transaction for a CA policy</t>
   </si>
   <si>
@@ -91,6 +82,15 @@
   </si>
   <si>
     <t>SmartComm/Dyanamic Forms/SBGWI-256 - Something</t>
+  </si>
+  <si>
+    <t>Login to PC and initiate a submission</t>
+  </si>
+  <si>
+    <t>TC_1_Verify the dynamic fields for FORMNUM</t>
+  </si>
+  <si>
+    <t>Verify the dynamic fields for FORMNUM</t>
   </si>
 </sst>
 </file>
@@ -448,12 +448,13 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="20.90625" style="1"/>
+    <col min="1" max="1" width="4.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="20.90625" style="1"/>
     <col min="7" max="7" width="61.54296875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="20.90625" style="1"/>
   </cols>
@@ -486,46 +487,46 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/inputTemplate.xlsx
+++ b/inputTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feeco\Desktop\FileSystemProcessor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1E492F-9AD8-4092-8A4A-5A20FBE7E1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC31439-61A6-47E7-B2BD-12AF4F5F918C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C77A7442-41EE-444C-9D54-54CA19CA71CB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{C77A7442-41EE-444C-9D54-54CA19CA71CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>initiate a New Submission transaction for a CA policy</t>
   </si>
   <si>
-    <t>Navigate to COVERAGE_TYPE tab.</t>
-  </si>
-  <si>
     <t>Verify that the below Coverage Term(s) is(are) displayed FIELDS</t>
   </si>
   <si>
@@ -75,32 +72,130 @@
     <t>User should be able to start a New submission transaction</t>
   </si>
   <si>
-    <t>User should be able to nanvigate to the COVERAGE_TYPE screen</t>
-  </si>
-  <si>
     <t>The Coverage Term(s) should be displayed along with the default value (if any) and options available for selection</t>
   </si>
   <si>
     <t>SmartComm/Dyanamic Forms/SBGWI-256 - Something</t>
   </si>
   <si>
-    <t>Login to PC and initiate a submission</t>
-  </si>
-  <si>
-    <t>TC_1_Verify the dynamic fields for FORMNUM</t>
-  </si>
-  <si>
-    <t>Verify the dynamic fields for FORMNUM</t>
+    <r>
+      <t xml:space="preserve">Login to PC and initiate a submission for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STATE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TRIGGERING_CONDITION</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to add all the terms</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TC_1_Verify the dynamic fields for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FORMNUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EDITION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FORMNAME</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify the dynamic fields for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FORMNUM EDITION - FORMNAME</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,7 +224,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,15 +542,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF473746-3616-4C7A-A3D4-0645D3911FAD}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="193" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="20.90625" style="1"/>
-    <col min="7" max="7" width="61.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="20.90625" style="1"/>
   </cols>
   <sheetData>
@@ -482,7 +581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -496,13 +595,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -510,23 +609,23 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
